--- a/信号参数.xlsx
+++ b/信号参数.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HEU\Desktop\GCPS_A_CNN_Performance_Evaluation_Criterion_for_Radar_Signal_Intrapulse_Modulation_Recognition\时频分析\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Y7000备份\E盘备份\Radar Signal Intra-pulse Modulation Type Recognition\论文复现\基于奇异值熵和分形维数的雷达信号识别\信号特征提取\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14778368-6A67-427F-A9D0-6272C0343EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3B2D8F-D81F-4A9B-8EB0-3018E805A156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
   <si>
     <t>fs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,12 +303,32 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>COSTAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COSTAS_sequence_length_min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COSTAS_sequence_length_max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +363,13 @@
       <family val="1"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -352,7 +379,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -360,11 +387,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -376,10 +483,40 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -662,28 +799,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="118" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="6">
         <v>1000000000</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -691,11 +828,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.35">
-      <c r="A2" s="6"/>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="8">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -703,23 +840,23 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="24" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="1">
-        <v>224</v>
+      <c r="C3" s="8">
+        <v>1024</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="24" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="10">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -727,581 +864,620 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A10" s="16"/>
+      <c r="B10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A12" s="15"/>
+      <c r="B12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A13" s="15"/>
+      <c r="B13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A14" s="15"/>
+      <c r="B14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A15" s="15"/>
+      <c r="B15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A16" s="16"/>
+      <c r="B16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A18" s="15"/>
+      <c r="B18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A19" s="15"/>
+      <c r="B19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="8">
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
+    <row r="20" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A20" s="16"/>
+      <c r="B20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="10">
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="1" t="s">
+    <row r="21" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="B10" s="1" t="s">
+      <c r="C21" s="6">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A22" s="15"/>
+      <c r="B22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="C22" s="8">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A23" s="15"/>
+      <c r="B23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A24" s="16"/>
+      <c r="B24" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A25" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A26" s="16"/>
+      <c r="B26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="24" x14ac:dyDescent="0.35">
+      <c r="A27" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="6">
         <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="1">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-      <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="1">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
-      <c r="B19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="1">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
-      <c r="B22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="1">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A23" s="5"/>
-      <c r="B23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="5"/>
-      <c r="B24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A26" s="5"/>
-      <c r="B26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="24" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="1">
-        <v>4</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
-      <c r="B28" s="1" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A29" s="5"/>
-      <c r="B29" s="1" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="8">
         <v>0.1</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A30" s="5"/>
-      <c r="B30" s="1" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="10">
         <v>0.2</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="6">
         <v>0.3</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A32" s="5"/>
-      <c r="B32" s="1" t="s">
+      <c r="A32" s="15"/>
+      <c r="B32" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="8">
         <v>0.45</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A33" s="5"/>
-      <c r="B33" s="1" t="s">
+      <c r="A33" s="15"/>
+      <c r="B33" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="8">
         <v>0.01</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A34" s="5"/>
-      <c r="B34" s="1" t="s">
+      <c r="A34" s="16"/>
+      <c r="B34" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A36" s="15"/>
+      <c r="B36" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A37" s="15"/>
+      <c r="B37" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A38" s="15"/>
+      <c r="B38" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="8">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A39" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B39" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C39" s="6">
         <v>0.05</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A36" s="5"/>
-      <c r="B36" s="1" t="s">
+    <row r="40" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A40" s="15"/>
+      <c r="B40" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C40" s="8">
         <v>0.45</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A37" s="5"/>
-      <c r="B37" s="1" t="s">
+    <row r="41" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A41" s="15"/>
+      <c r="B41" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A38" s="5"/>
-      <c r="B38" s="1" t="s">
+      <c r="C41" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A42" s="15"/>
+      <c r="B42" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C42" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A43" s="15"/>
+      <c r="B43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="8">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A44" s="16"/>
+      <c r="B44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="10">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A45" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="6">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A46" s="15"/>
+      <c r="B46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="8">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A47" s="15"/>
+      <c r="B47" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A48" s="15"/>
+      <c r="B48" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A49" s="15"/>
+      <c r="B49" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A50" s="16"/>
+      <c r="B50" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="10">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A51" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="6">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A52" s="15"/>
+      <c r="B52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="8">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A53" s="15"/>
+      <c r="B53" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A54" s="15"/>
+      <c r="B54" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A55" s="15"/>
+      <c r="B55" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A56" s="16"/>
+      <c r="B56" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="10">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A57" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="6">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A58" s="15"/>
+      <c r="B58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="8">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A59" s="15"/>
+      <c r="B59" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A60" s="16"/>
+      <c r="B60" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="10">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A61" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="6">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A62" s="15"/>
+      <c r="B62" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="8">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A63" s="15"/>
+      <c r="B63" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A64" s="16"/>
+      <c r="B64" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="10">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A65" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A66" s="16"/>
+      <c r="B66" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A39" s="5"/>
-      <c r="B39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="1">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A40" s="5"/>
-      <c r="B40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="1">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="1">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A42" s="5"/>
-      <c r="B42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="1">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A43" s="5"/>
-      <c r="B43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A44" s="5"/>
-      <c r="B44" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A45" s="5"/>
-      <c r="B45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A46" s="5"/>
-      <c r="B46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="1">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A48" s="5"/>
-      <c r="B48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="1">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A49" s="5"/>
-      <c r="B49" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A50" s="5"/>
-      <c r="B50" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C50" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A51" s="5"/>
-      <c r="B51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A52" s="5"/>
-      <c r="B52" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A53" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="1">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A54" s="5"/>
-      <c r="B54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="1">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A55" s="5"/>
-      <c r="B55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A56" s="5"/>
-      <c r="B56" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A57" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="1">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A58" s="5"/>
-      <c r="B58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="1">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A59" s="5"/>
-      <c r="B59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C59" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A60" s="5"/>
-      <c r="B60" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A61" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C61" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A62" s="5"/>
-      <c r="B62" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C62" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="3"/>
-    </row>
-    <row r="64" spans="1:3" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
-    </row>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="1:3" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="3"/>
+    </row>
+    <row r="68" spans="1:3" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="3"/>
+    </row>
+    <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="A53:A56"/>
+  <mergeCells count="15">
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A51:A56"/>
     <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A61:A64"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A45:A50"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A11:A16"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A35:A38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/信号参数.xlsx
+++ b/信号参数.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Y7000备份\E盘备份\Radar Signal Intra-pulse Modulation Type Recognition\论文复现\基于奇异值熵和分形维数的雷达信号识别\信号特征提取\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Nongkai Tian\radar-communication-signal-waveform-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3B2D8F-D81F-4A9B-8EB0-3018E805A156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59D170E-FD0A-403C-9039-825909F7959A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>fs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -323,12 +323,15 @@
     <t>f_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>VTFM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +370,12 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -471,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -501,6 +510,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -510,13 +528,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -799,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -814,7 +832,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -828,7 +846,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="7" t="s">
         <v>16</v>
       </c>
@@ -840,7 +858,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="24" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="7" t="s">
         <v>33</v>
       </c>
@@ -852,7 +870,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="24" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
@@ -864,7 +882,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -875,7 +893,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
@@ -884,7 +902,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
@@ -893,7 +911,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
@@ -902,7 +920,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
@@ -911,7 +929,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="9" t="s">
         <v>11</v>
       </c>
@@ -920,27 +938,27 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
-        <v>8</v>
+      <c r="A11" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C11" s="6">
-        <v>1024</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="15"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C12" s="8">
-        <v>1024</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="7" t="s">
         <v>6</v>
       </c>
@@ -949,7 +967,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="7" t="s">
         <v>7</v>
       </c>
@@ -958,65 +976,65 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="15"/>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A16" s="13"/>
+      <c r="B16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A17" s="13"/>
+      <c r="B17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A18" s="13"/>
+      <c r="B18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A19" s="13"/>
+      <c r="B19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C19" s="8">
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
-      <c r="B16" s="9" t="s">
+    <row r="20" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A20" s="12"/>
+      <c r="B20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C20" s="10">
         <v>0.1</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A21" s="11" t="s">
         <v>3</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="6">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="15"/>
-      <c r="B18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="8">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="15"/>
-      <c r="B19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="8">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="16"/>
-      <c r="B20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="10">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>10</v>
@@ -1026,7 +1044,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="15"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="7" t="s">
         <v>11</v>
       </c>
@@ -1035,7 +1053,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A23" s="15"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="7" t="s">
         <v>14</v>
       </c>
@@ -1044,341 +1062,341 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="16"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="10">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A26" s="13"/>
+      <c r="B26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A27" s="13"/>
+      <c r="B27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A28" s="12"/>
+      <c r="B28" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="10">
         <v>0.45</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A25" s="14" t="s">
+    <row r="29" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C29" s="6">
         <v>0.05</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A26" s="16"/>
-      <c r="B26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="10">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="24" x14ac:dyDescent="0.35">
-      <c r="A27" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="6">
-        <v>8</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A28" s="15"/>
-      <c r="B28" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A29" s="15"/>
-      <c r="B29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="8">
-        <v>0.1</v>
-      </c>
-    </row>
     <row r="30" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A30" s="16"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="10">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="24" x14ac:dyDescent="0.35">
+      <c r="A31" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="6">
+        <v>8</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A32" s="13"/>
+      <c r="B32" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A33" s="13"/>
+      <c r="B33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A34" s="12"/>
+      <c r="B34" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="10">
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A31" s="14" t="s">
+    <row r="35" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A35" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C35" s="6">
         <v>0.3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A32" s="15"/>
-      <c r="B32" s="7" t="s">
+    <row r="36" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A36" s="13"/>
+      <c r="B36" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C36" s="8">
         <v>0.45</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A33" s="15"/>
-      <c r="B33" s="7" t="s">
+    <row r="37" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A37" s="13"/>
+      <c r="B37" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C37" s="8">
         <v>0.01</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A34" s="16"/>
-      <c r="B34" s="9" t="s">
+    <row r="38" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A38" s="12"/>
+      <c r="B38" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C38" s="10">
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A35" s="14" t="s">
+    <row r="39" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A39" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B39" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C39" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A36" s="15"/>
-      <c r="B36" s="7" t="s">
+    <row r="40" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A40" s="13"/>
+      <c r="B40" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C40" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A37" s="15"/>
-      <c r="B37" s="7" t="s">
+    <row r="41" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A41" s="13"/>
+      <c r="B41" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C41" s="8">
         <v>0.05</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A38" s="15"/>
-      <c r="B38" s="7" t="s">
+    <row r="42" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A42" s="13"/>
+      <c r="B42" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C42" s="8">
         <v>0.45</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A39" s="14" t="s">
+    <row r="43" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A43" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B43" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C43" s="6">
         <v>0.05</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A40" s="15"/>
-      <c r="B40" s="7" t="s">
+    <row r="44" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A44" s="13"/>
+      <c r="B44" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C44" s="8">
         <v>0.45</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A41" s="15"/>
-      <c r="B41" s="7" t="s">
+    <row r="45" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A45" s="13"/>
+      <c r="B45" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C45" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A42" s="15"/>
-      <c r="B42" s="7" t="s">
+    <row r="46" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A46" s="13"/>
+      <c r="B46" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C46" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A43" s="15"/>
-      <c r="B43" s="7" t="s">
+    <row r="47" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A47" s="13"/>
+      <c r="B47" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C47" s="8">
         <v>1024</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A44" s="16"/>
-      <c r="B44" s="9" t="s">
+    <row r="48" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A48" s="12"/>
+      <c r="B48" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C48" s="10">
         <v>1024</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A45" s="14" t="s">
+    <row r="49" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A49" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B49" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C49" s="6">
         <v>2048</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A46" s="15"/>
-      <c r="B46" s="7" t="s">
+    <row r="50" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A50" s="13"/>
+      <c r="B50" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C50" s="8">
         <v>2048</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A47" s="15"/>
-      <c r="B47" s="7" t="s">
+    <row r="51" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A51" s="13"/>
+      <c r="B51" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C51" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A48" s="15"/>
-      <c r="B48" s="7" t="s">
+    <row r="52" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A52" s="13"/>
+      <c r="B52" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C52" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A49" s="15"/>
-      <c r="B49" s="7" t="s">
+    <row r="53" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A53" s="13"/>
+      <c r="B53" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C53" s="8">
         <v>0.2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A50" s="16"/>
-      <c r="B50" s="9" t="s">
+    <row r="54" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A54" s="12"/>
+      <c r="B54" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C54" s="10">
         <v>0.25</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A51" s="14" t="s">
+    <row r="55" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A55" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B55" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C55" s="6">
         <v>2048</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A52" s="15"/>
-      <c r="B52" s="7" t="s">
+    <row r="56" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A56" s="13"/>
+      <c r="B56" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C56" s="8">
         <v>2048</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A53" s="15"/>
-      <c r="B53" s="7" t="s">
+    <row r="57" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A57" s="13"/>
+      <c r="B57" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C57" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A54" s="15"/>
-      <c r="B54" s="7" t="s">
+    <row r="58" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A58" s="13"/>
+      <c r="B58" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C58" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A55" s="15"/>
-      <c r="B55" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A56" s="16"/>
-      <c r="B56" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="10">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A57" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="6">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A58" s="15"/>
-      <c r="B58" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="8">
-        <v>2048</v>
-      </c>
-    </row>
     <row r="59" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A59" s="15"/>
+      <c r="A59" s="13"/>
       <c r="B59" s="7" t="s">
         <v>14</v>
       </c>
@@ -1387,7 +1405,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A60" s="16"/>
+      <c r="A60" s="12"/>
       <c r="B60" s="9" t="s">
         <v>15</v>
       </c>
@@ -1396,8 +1414,8 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A61" s="14" t="s">
-        <v>29</v>
+      <c r="A61" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>10</v>
@@ -1407,7 +1425,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A62" s="15"/>
+      <c r="A62" s="13"/>
       <c r="B62" s="7" t="s">
         <v>11</v>
       </c>
@@ -1416,7 +1434,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A63" s="15"/>
+      <c r="A63" s="13"/>
       <c r="B63" s="7" t="s">
         <v>14</v>
       </c>
@@ -1425,7 +1443,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A64" s="16"/>
+      <c r="A64" s="12"/>
       <c r="B64" s="9" t="s">
         <v>15</v>
       </c>
@@ -1434,50 +1452,89 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="6">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A66" s="13"/>
+      <c r="B66" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="8">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A67" s="13"/>
+      <c r="B67" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A68" s="12"/>
+      <c r="B68" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="10">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A69" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B69" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C69" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A66" s="16"/>
-      <c r="B66" s="9" t="s">
+    <row r="70" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A70" s="12"/>
+      <c r="B70" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C66" s="10">
+      <c r="C70" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="3"/>
-    </row>
-    <row r="68" spans="1:3" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="3"/>
-    </row>
-    <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="1:3" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A71" s="3"/>
+    </row>
+    <row r="72" spans="1:3" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A72" s="3"/>
+    </row>
+    <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="A57:A60"/>
+  <mergeCells count="16">
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A55:A60"/>
     <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A65:A68"/>
     <mergeCell ref="A1:A4"/>
-    <mergeCell ref="A17:A20"/>
     <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="A49:A54"/>
     <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A35:A38"/>
     <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A11:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/信号参数.xlsx
+++ b/信号参数.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Nongkai Tian\radar-communication-signal-waveform-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59D170E-FD0A-403C-9039-825909F7959A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5B317E-276D-45FE-9FE1-46EE4B4BCC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,10 +528,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -819,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -938,7 +938,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -949,7 +949,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="17"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="7" t="s">
         <v>5</v>
       </c>
@@ -958,7 +958,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="7" t="s">
         <v>6</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>14</v>
       </c>
       <c r="C43" s="6">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
@@ -1262,7 +1262,7 @@
         <v>15</v>
       </c>
       <c r="C44" s="8">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
@@ -1271,7 +1271,7 @@
         <v>20</v>
       </c>
       <c r="C45" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
@@ -1280,7 +1280,7 @@
         <v>21</v>
       </c>
       <c r="C46" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
